--- a/links.xlsx
+++ b/links.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Phone Web Portal</t>
   </si>
   <si>
-    <t>Other Bookmarks</t>
-  </si>
-  <si>
     <t>Information Technology Services</t>
   </si>
   <si>
@@ -57,6 +54,18 @@
   </si>
   <si>
     <t>Printing</t>
+  </si>
+  <si>
+    <t>Netgear ReadyShare Drive</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Netgear Router Login</t>
   </si>
 </sst>
 </file>
@@ -391,67 +400,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:C23"/>
+  <dimension ref="C3:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -466,6 +484,8 @@
     <hyperlink ref="C15" r:id="rId8"/>
     <hyperlink ref="C13" r:id="rId9"/>
     <hyperlink ref="C21" r:id="rId10"/>
+    <hyperlink ref="G5" r:id="rId11"/>
+    <hyperlink ref="G7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Netgear Router Login</t>
+  </si>
+  <si>
+    <t>ReadyCloud Web Portal</t>
+  </si>
+  <si>
+    <t>Personal Website</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
   <dimension ref="C3:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,17 +435,23 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
@@ -485,7 +497,9 @@
     <hyperlink ref="C13" r:id="rId9"/>
     <hyperlink ref="C21" r:id="rId10"/>
     <hyperlink ref="G5" r:id="rId11"/>
-    <hyperlink ref="G7" r:id="rId12"/>
+    <hyperlink ref="G9" r:id="rId12"/>
+    <hyperlink ref="G7" r:id="rId13" location="page=access"/>
+    <hyperlink ref="G11" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -56,22 +56,34 @@
     <t>Printing</t>
   </si>
   <si>
-    <t>Netgear ReadyShare Drive</t>
-  </si>
-  <si>
     <t>Work</t>
   </si>
   <si>
     <t>Personal</t>
   </si>
   <si>
-    <t>Netgear Router Login</t>
-  </si>
-  <si>
     <t>ReadyCloud Web Portal</t>
   </si>
   <si>
     <t>Personal Website</t>
+  </si>
+  <si>
+    <t>Netgear Admin Login</t>
+  </si>
+  <si>
+    <t>ReadyShare Network Drive</t>
+  </si>
+  <si>
+    <t>Online Photo Editor</t>
+  </si>
+  <si>
+    <t>Billing Invoice - Buisiness Office</t>
+  </si>
+  <si>
+    <t>Bethel Classroom Information</t>
+  </si>
+  <si>
+    <t>Discover Portal</t>
   </si>
 </sst>
 </file>
@@ -406,100 +418,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G23"/>
+  <dimension ref="C3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="3:7" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="/dashboard"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="C11" r:id="rId4"/>
-    <hyperlink ref="C23" r:id="rId5"/>
-    <hyperlink ref="C19" r:id="rId6"/>
-    <hyperlink ref="C17" r:id="rId7"/>
-    <hyperlink ref="C15" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C21" r:id="rId10"/>
-    <hyperlink ref="G5" r:id="rId11"/>
-    <hyperlink ref="G9" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId1" location="/dashboard"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="C25" r:id="rId5"/>
+    <hyperlink ref="C21" r:id="rId6"/>
+    <hyperlink ref="C19" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C23" r:id="rId10"/>
+    <hyperlink ref="G5" r:id="rId11" display="Netgear ReadyShare Drive"/>
+    <hyperlink ref="G9" r:id="rId12" display="Netgear Router Login"/>
     <hyperlink ref="G7" r:id="rId13" location="page=access"/>
     <hyperlink ref="G11" r:id="rId14"/>
+    <hyperlink ref="G13" r:id="rId15"/>
+    <hyperlink ref="C27" r:id="rId16"/>
+    <hyperlink ref="C7" r:id="rId17"/>
+    <hyperlink ref="G15" r:id="rId18" display="Discover"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Discover Portal</t>
+  </si>
+  <si>
+    <t>Old Inventory</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G27"/>
+  <dimension ref="C3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,6 +513,11 @@
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -532,6 +540,7 @@
     <hyperlink ref="C27" r:id="rId16"/>
     <hyperlink ref="C7" r:id="rId17"/>
     <hyperlink ref="G15" r:id="rId18" display="Discover"/>
+    <hyperlink ref="C29" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Banner</t>
   </si>
   <si>
-    <t>Blink</t>
-  </si>
-  <si>
     <t>TLT Website</t>
   </si>
   <si>
@@ -87,6 +84,15 @@
   </si>
   <si>
     <t>Old Inventory</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Altiris 8 Server</t>
+  </si>
+  <si>
+    <t>Altiris 7 Server</t>
   </si>
 </sst>
 </file>
@@ -421,73 +427,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G29"/>
+  <dimension ref="C3:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
@@ -497,50 +521,31 @@
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" location="/dashboard"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
-    <hyperlink ref="C13" r:id="rId4"/>
-    <hyperlink ref="C25" r:id="rId5"/>
-    <hyperlink ref="C21" r:id="rId6"/>
-    <hyperlink ref="C19" r:id="rId7"/>
-    <hyperlink ref="C17" r:id="rId8"/>
-    <hyperlink ref="C5" r:id="rId9"/>
-    <hyperlink ref="C23" r:id="rId10"/>
-    <hyperlink ref="G5" r:id="rId11" display="Netgear ReadyShare Drive"/>
-    <hyperlink ref="G9" r:id="rId12" display="Netgear Router Login"/>
-    <hyperlink ref="G7" r:id="rId13" location="page=access"/>
-    <hyperlink ref="G11" r:id="rId14"/>
-    <hyperlink ref="G13" r:id="rId15"/>
-    <hyperlink ref="C27" r:id="rId16"/>
-    <hyperlink ref="C7" r:id="rId17"/>
-    <hyperlink ref="G15" r:id="rId18" display="Discover"/>
-    <hyperlink ref="C29" r:id="rId19"/>
+    <hyperlink ref="G11" r:id="rId1" location="/dashboard"/>
+    <hyperlink ref="G13" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C11" r:id="rId4"/>
+    <hyperlink ref="C19" r:id="rId5"/>
+    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="K5" r:id="rId10" display="Netgear ReadyShare Drive"/>
+    <hyperlink ref="K9" r:id="rId11" display="Netgear Router Login"/>
+    <hyperlink ref="K7" r:id="rId12" location="page=access"/>
+    <hyperlink ref="K11" r:id="rId13"/>
+    <hyperlink ref="K13" r:id="rId14"/>
+    <hyperlink ref="C21" r:id="rId15"/>
+    <hyperlink ref="C7" r:id="rId16"/>
+    <hyperlink ref="K15" r:id="rId17" display="Discover"/>
+    <hyperlink ref="G9" r:id="rId18"/>
+    <hyperlink ref="G5" r:id="rId19"/>
+    <hyperlink ref="G7" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Banner</t>
   </si>
   <si>
-    <t>TLT Website</t>
-  </si>
-  <si>
     <t>Internet Native Banner (INB)</t>
   </si>
   <si>
@@ -93,6 +90,33 @@
   </si>
   <si>
     <t>Altiris 7 Server</t>
+  </si>
+  <si>
+    <t>PO's 2017-2018</t>
+  </si>
+  <si>
+    <t>Lab Re-image Checklist 2017</t>
+  </si>
+  <si>
+    <t>Cost of Equipment</t>
+  </si>
+  <si>
+    <t>Summer 2017 Upgrades</t>
+  </si>
+  <si>
+    <t>Instructor Staion Checklist 2017</t>
+  </si>
+  <si>
+    <t>Port Activation Requests</t>
+  </si>
+  <si>
+    <t>ITS Help Desk Loaners</t>
+  </si>
+  <si>
+    <t>Floorplans</t>
+  </si>
+  <si>
+    <t>110000-52105-7801-60</t>
   </si>
 </sst>
 </file>
@@ -427,23 +451,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K21"/>
+  <dimension ref="C3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="3:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
@@ -451,101 +475,136 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1" location="/dashboard"/>
     <hyperlink ref="G13" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="C11" r:id="rId4"/>
-    <hyperlink ref="C19" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
     <hyperlink ref="C15" r:id="rId6"/>
-    <hyperlink ref="C13" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="K5" r:id="rId10" display="Netgear ReadyShare Drive"/>
-    <hyperlink ref="K9" r:id="rId11" display="Netgear Router Login"/>
-    <hyperlink ref="K7" r:id="rId12" location="page=access"/>
-    <hyperlink ref="K11" r:id="rId13"/>
-    <hyperlink ref="K13" r:id="rId14"/>
-    <hyperlink ref="C21" r:id="rId15"/>
-    <hyperlink ref="C7" r:id="rId16"/>
-    <hyperlink ref="K15" r:id="rId17" display="Discover"/>
-    <hyperlink ref="G9" r:id="rId18"/>
-    <hyperlink ref="G5" r:id="rId19"/>
-    <hyperlink ref="G7" r:id="rId20"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="C19" r:id="rId8"/>
+    <hyperlink ref="K5" r:id="rId9" display="Netgear ReadyShare Drive"/>
+    <hyperlink ref="K9" r:id="rId10" display="Netgear Router Login"/>
+    <hyperlink ref="K7" r:id="rId11" location="page=access"/>
+    <hyperlink ref="K11" r:id="rId12"/>
+    <hyperlink ref="K13" r:id="rId13"/>
+    <hyperlink ref="C21" r:id="rId14"/>
+    <hyperlink ref="C7" r:id="rId15"/>
+    <hyperlink ref="K15" r:id="rId16" display="Discover"/>
+    <hyperlink ref="G9" r:id="rId17"/>
+    <hyperlink ref="G5" r:id="rId18"/>
+    <hyperlink ref="G7" r:id="rId19"/>
+    <hyperlink ref="G15" r:id="rId20" location="gid=1"/>
+    <hyperlink ref="G17" r:id="rId21"/>
+    <hyperlink ref="G19" r:id="rId22"/>
+    <hyperlink ref="G21" r:id="rId23"/>
+    <hyperlink ref="G23" r:id="rId24"/>
+    <hyperlink ref="C25" r:id="rId25"/>
+    <hyperlink ref="C23" r:id="rId26"/>
+    <hyperlink ref="C9" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bej68982 1/GitHub/benjamin-john.github.io/"/>
@@ -50,9 +50,6 @@
     <t>Printing</t>
   </si>
   <si>
-    <t>Work</t>
-  </si>
-  <si>
     <t>Personal</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>110000-52105-7801-60</t>
+  </si>
+  <si>
+    <t>Help Desk</t>
   </si>
 </sst>
 </file>
@@ -454,20 +454,20 @@
   <dimension ref="C3:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="3:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
@@ -475,32 +475,32 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.2">
@@ -530,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
@@ -549,31 +549,31 @@
         <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Help Desk</t>
+  </si>
+  <si>
+    <t>NotePad</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="C3:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,15 +539,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="K17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
@@ -552,7 +558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -560,7 +566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
@@ -568,7 +574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
@@ -605,6 +611,7 @@
     <hyperlink ref="C25" r:id="rId25"/>
     <hyperlink ref="C23" r:id="rId26"/>
     <hyperlink ref="C9" r:id="rId27"/>
+    <hyperlink ref="K17" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>NotePad</t>
+  </si>
+  <si>
+    <t>Meraki</t>
+  </si>
+  <si>
+    <t>Wufoo</t>
+  </si>
+  <si>
+    <t>Apple School Manager</t>
   </si>
 </sst>
 </file>
@@ -189,6 +198,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="mage result for back arrow icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="622300" y="203200"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K25"/>
+  <dimension ref="C3:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>16</v>
@@ -544,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>31</v>
@@ -555,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
@@ -563,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
@@ -571,15 +642,28 @@
         <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>29</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -603,16 +687,20 @@
     <hyperlink ref="G9" r:id="rId17"/>
     <hyperlink ref="G5" r:id="rId18"/>
     <hyperlink ref="G7" r:id="rId19"/>
-    <hyperlink ref="G15" r:id="rId20" location="gid=1"/>
-    <hyperlink ref="G17" r:id="rId21"/>
-    <hyperlink ref="G19" r:id="rId22"/>
-    <hyperlink ref="G21" r:id="rId23"/>
-    <hyperlink ref="G23" r:id="rId24"/>
+    <hyperlink ref="G21" r:id="rId20" location="gid=1"/>
+    <hyperlink ref="G23" r:id="rId21"/>
+    <hyperlink ref="G25" r:id="rId22"/>
+    <hyperlink ref="G27" r:id="rId23"/>
+    <hyperlink ref="G29" r:id="rId24"/>
     <hyperlink ref="C25" r:id="rId25"/>
     <hyperlink ref="C23" r:id="rId26"/>
     <hyperlink ref="C9" r:id="rId27"/>
     <hyperlink ref="K17" r:id="rId28"/>
+    <hyperlink ref="G15" r:id="rId29"/>
+    <hyperlink ref="G17" r:id="rId30"/>
+    <hyperlink ref="G19" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Apple School Manager</t>
+  </si>
+  <si>
+    <t>Install Altiris Agent Mac</t>
+  </si>
+  <si>
+    <t>Install Altiris Agent Windows</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K29"/>
+  <dimension ref="C3:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,6 +670,16 @@
       </c>
       <c r="G29" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -699,8 +715,10 @@
     <hyperlink ref="G15" r:id="rId29"/>
     <hyperlink ref="G17" r:id="rId30"/>
     <hyperlink ref="G19" r:id="rId31"/>
+    <hyperlink ref="G33" r:id="rId32"/>
+    <hyperlink ref="G31" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId32"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Help Desk</t>
-  </si>
-  <si>
-    <t>NotePad</t>
   </si>
   <si>
     <t>Meraki</t>
@@ -141,7 +138,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,6 +164,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -185,12 +197,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,156 +544,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K33"/>
+  <dimension ref="C3:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -711,14 +1006,13 @@
     <hyperlink ref="C25" r:id="rId25"/>
     <hyperlink ref="C23" r:id="rId26"/>
     <hyperlink ref="C9" r:id="rId27"/>
-    <hyperlink ref="K17" r:id="rId28"/>
-    <hyperlink ref="G15" r:id="rId29"/>
-    <hyperlink ref="G17" r:id="rId30"/>
-    <hyperlink ref="G19" r:id="rId31"/>
-    <hyperlink ref="G33" r:id="rId32"/>
-    <hyperlink ref="G31" r:id="rId33"/>
+    <hyperlink ref="G15" r:id="rId28"/>
+    <hyperlink ref="G17" r:id="rId29"/>
+    <hyperlink ref="G19" r:id="rId30"/>
+    <hyperlink ref="G33" r:id="rId31"/>
+    <hyperlink ref="G31" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId34"/>
+  <drawing r:id="rId33"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -139,6 +139,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,14 +176,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,16 +193,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,21 +558,31 @@
   <dimension ref="C3:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
@@ -579,7 +600,7 @@
       <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
@@ -591,7 +612,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
@@ -609,7 +630,7 @@
       <c r="K7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
@@ -621,7 +642,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
@@ -639,7 +660,7 @@
       <c r="K9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
@@ -651,7 +672,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -669,7 +690,7 @@
       <c r="K11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
@@ -681,7 +702,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
@@ -699,7 +720,7 @@
       <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
@@ -711,7 +732,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
@@ -729,7 +750,7 @@
       <c r="K15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
@@ -741,7 +762,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
@@ -757,7 +778,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
@@ -769,7 +790,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
@@ -785,7 +806,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
@@ -797,7 +818,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
@@ -813,7 +834,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
@@ -825,7 +846,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
@@ -841,7 +862,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
@@ -853,7 +874,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
@@ -869,7 +890,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
@@ -881,7 +902,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
@@ -895,7 +916,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
@@ -907,7 +928,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
@@ -923,7 +944,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
@@ -935,7 +956,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
@@ -949,7 +970,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
@@ -961,7 +982,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
@@ -975,7 +996,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1013,6 +1034,7 @@
     <hyperlink ref="G31" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId33"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Install Altiris Agent Windows</t>
+  </si>
+  <si>
+    <t>Perkins Loan</t>
+  </si>
+  <si>
+    <t>BND Loan</t>
+  </si>
+  <si>
+    <t>Greak Lakes Loan</t>
+  </si>
+  <si>
+    <t>Wings Financial</t>
   </si>
 </sst>
 </file>
@@ -207,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -215,6 +227,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,7 +572,7 @@
   <dimension ref="C3:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,7 +775,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
@@ -777,7 +791,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
@@ -789,7 +805,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
@@ -805,7 +821,9 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
@@ -817,7 +835,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
@@ -833,7 +851,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
@@ -845,7 +865,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
@@ -861,7 +881,9 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
@@ -1032,9 +1054,13 @@
     <hyperlink ref="G19" r:id="rId30"/>
     <hyperlink ref="G33" r:id="rId31"/>
     <hyperlink ref="G31" r:id="rId32"/>
+    <hyperlink ref="K21" r:id="rId33"/>
+    <hyperlink ref="K19" r:id="rId34"/>
+    <hyperlink ref="K17" r:id="rId35"/>
+    <hyperlink ref="K23" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId33"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -65,9 +65,6 @@
     <t>ReadyShare Network Drive</t>
   </si>
   <si>
-    <t>Online Photo Editor</t>
-  </si>
-  <si>
     <t>Billing Invoice - Buisiness Office</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Wings Financial</t>
+  </si>
+  <si>
+    <t>Name Cheap Domain</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="C3:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,13 +582,13 @@
   <sheetData>
     <row r="3" spans="3:12" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -606,7 +606,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -630,13 +630,13 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -660,13 +660,13 @@
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -702,7 +702,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -715,7 +715,6 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
@@ -732,7 +731,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -756,13 +755,13 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -786,13 +785,13 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -816,13 +815,13 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -840,19 +839,19 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -870,19 +869,19 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -900,13 +899,13 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -932,7 +931,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -954,13 +953,13 @@
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -986,7 +985,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1012,7 +1011,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1033,31 +1032,31 @@
     <hyperlink ref="K5" r:id="rId9" display="Netgear ReadyShare Drive"/>
     <hyperlink ref="K9" r:id="rId10" display="Netgear Router Login"/>
     <hyperlink ref="K7" r:id="rId11" location="page=access"/>
-    <hyperlink ref="K11" r:id="rId12"/>
-    <hyperlink ref="K13" r:id="rId13"/>
-    <hyperlink ref="C21" r:id="rId14"/>
-    <hyperlink ref="C7" r:id="rId15"/>
-    <hyperlink ref="K15" r:id="rId16" display="Discover"/>
-    <hyperlink ref="G9" r:id="rId17"/>
-    <hyperlink ref="G5" r:id="rId18"/>
-    <hyperlink ref="G7" r:id="rId19"/>
-    <hyperlink ref="G21" r:id="rId20" location="gid=1"/>
-    <hyperlink ref="G23" r:id="rId21"/>
-    <hyperlink ref="G25" r:id="rId22"/>
-    <hyperlink ref="G27" r:id="rId23"/>
-    <hyperlink ref="G29" r:id="rId24"/>
-    <hyperlink ref="C25" r:id="rId25"/>
-    <hyperlink ref="C23" r:id="rId26"/>
-    <hyperlink ref="C9" r:id="rId27"/>
-    <hyperlink ref="G15" r:id="rId28"/>
-    <hyperlink ref="G17" r:id="rId29"/>
-    <hyperlink ref="G19" r:id="rId30"/>
-    <hyperlink ref="G33" r:id="rId31"/>
-    <hyperlink ref="G31" r:id="rId32"/>
-    <hyperlink ref="K21" r:id="rId33"/>
-    <hyperlink ref="K19" r:id="rId34"/>
-    <hyperlink ref="K17" r:id="rId35"/>
-    <hyperlink ref="K23" r:id="rId36"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C7" r:id="rId14"/>
+    <hyperlink ref="K15" r:id="rId15" display="Discover"/>
+    <hyperlink ref="G9" r:id="rId16"/>
+    <hyperlink ref="G5" r:id="rId17"/>
+    <hyperlink ref="G7" r:id="rId18"/>
+    <hyperlink ref="G21" r:id="rId19" location="gid=1"/>
+    <hyperlink ref="G23" r:id="rId20"/>
+    <hyperlink ref="G25" r:id="rId21"/>
+    <hyperlink ref="G27" r:id="rId22"/>
+    <hyperlink ref="G29" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C23" r:id="rId25"/>
+    <hyperlink ref="C9" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="G17" r:id="rId28"/>
+    <hyperlink ref="G19" r:id="rId29"/>
+    <hyperlink ref="G33" r:id="rId30"/>
+    <hyperlink ref="G31" r:id="rId31"/>
+    <hyperlink ref="K21" r:id="rId32"/>
+    <hyperlink ref="K19" r:id="rId33"/>
+    <hyperlink ref="K17" r:id="rId34"/>
+    <hyperlink ref="K23" r:id="rId35"/>
+    <hyperlink ref="K11" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -144,13 +144,23 @@
   </si>
   <si>
     <t>Name Cheap Domain</t>
+  </si>
+  <si>
+    <t>Shuttle Schedule (2017 Summer)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,18 +227,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,7 +795,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="3"/>
@@ -926,7 +937,9 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
+      <c r="C27" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -952,9 +965,6 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -980,7 +990,9 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1057,9 +1069,10 @@
     <hyperlink ref="K17" r:id="rId34"/>
     <hyperlink ref="K23" r:id="rId35"/>
     <hyperlink ref="K11" r:id="rId36"/>
+    <hyperlink ref="C27" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -147,13 +147,26 @@
   </si>
   <si>
     <t>Shuttle Schedule (2017 Summer)</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t>Health Partners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,18 +240,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -580,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L33"/>
+  <dimension ref="C3:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,8 +869,8 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
-        <v>20</v>
+      <c r="G21" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -871,7 +885,6 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -886,7 +899,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -916,12 +929,14 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
@@ -944,7 +959,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -969,7 +984,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -997,7 +1012,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1023,13 +1038,21 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G35" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1051,28 +1074,30 @@
     <hyperlink ref="G9" r:id="rId16"/>
     <hyperlink ref="G5" r:id="rId17"/>
     <hyperlink ref="G7" r:id="rId18"/>
-    <hyperlink ref="G21" r:id="rId19" location="gid=1"/>
-    <hyperlink ref="G23" r:id="rId20"/>
-    <hyperlink ref="G25" r:id="rId21"/>
-    <hyperlink ref="G27" r:id="rId22"/>
-    <hyperlink ref="G29" r:id="rId23"/>
+    <hyperlink ref="G23" r:id="rId19" location="gid=1"/>
+    <hyperlink ref="G25" r:id="rId20"/>
+    <hyperlink ref="G27" r:id="rId21"/>
+    <hyperlink ref="G29" r:id="rId22"/>
+    <hyperlink ref="G31" r:id="rId23"/>
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C23" r:id="rId25"/>
     <hyperlink ref="C9" r:id="rId26"/>
     <hyperlink ref="G15" r:id="rId27"/>
     <hyperlink ref="G17" r:id="rId28"/>
     <hyperlink ref="G19" r:id="rId29"/>
-    <hyperlink ref="G33" r:id="rId30"/>
-    <hyperlink ref="G31" r:id="rId31"/>
+    <hyperlink ref="G35" r:id="rId30"/>
+    <hyperlink ref="G33" r:id="rId31"/>
     <hyperlink ref="K21" r:id="rId32"/>
     <hyperlink ref="K19" r:id="rId33"/>
     <hyperlink ref="K17" r:id="rId34"/>
     <hyperlink ref="K23" r:id="rId35"/>
     <hyperlink ref="K11" r:id="rId36"/>
     <hyperlink ref="C27" r:id="rId37"/>
+    <hyperlink ref="G21" r:id="rId38"/>
+    <hyperlink ref="K25" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId38"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Health Partners</t>
+  </si>
+  <si>
+    <t>Kiosk Check-in Form</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="C3:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,6 +983,9 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1005,9 +1011,6 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1050,6 +1053,9 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1095,9 +1101,10 @@
     <hyperlink ref="C27" r:id="rId37"/>
     <hyperlink ref="G21" r:id="rId38"/>
     <hyperlink ref="K25" r:id="rId39"/>
+    <hyperlink ref="C29" r:id="rId40" display="Checkout Form"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId40"/>
+  <drawing r:id="rId41"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -89,18 +89,12 @@
     <t>PO's 2017-2018</t>
   </si>
   <si>
-    <t>Lab Re-image Checklist 2017</t>
-  </si>
-  <si>
     <t>Cost of Equipment</t>
   </si>
   <si>
     <t>Summer 2017 Upgrades</t>
   </si>
   <si>
-    <t>Instructor Staion Checklist 2017</t>
-  </si>
-  <si>
     <t>Port Activation Requests</t>
   </si>
   <si>
@@ -156,13 +150,26 @@
   </si>
   <si>
     <t>Kiosk Check-in Form</t>
+  </si>
+  <si>
+    <t>Equipment Checkout</t>
+  </si>
+  <si>
+    <t>Snake Game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,18 +250,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -597,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L35"/>
+  <dimension ref="C3:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +618,7 @@
   <sheetData>
     <row r="3" spans="3:12" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -688,7 +696,7 @@
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -730,7 +738,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -783,7 +791,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -813,13 +821,13 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -843,13 +851,13 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -873,13 +881,13 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -896,7 +904,7 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -908,7 +916,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -926,19 +934,19 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -956,18 +964,20 @@
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
@@ -984,13 +994,13 @@
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1004,20 +1014,21 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>32</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1040,25 +1051,13 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1083,25 +1082,25 @@
     <hyperlink ref="G23" r:id="rId19" location="gid=1"/>
     <hyperlink ref="G25" r:id="rId20"/>
     <hyperlink ref="G27" r:id="rId21"/>
-    <hyperlink ref="G29" r:id="rId22"/>
-    <hyperlink ref="G31" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C23" r:id="rId25"/>
-    <hyperlink ref="C9" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="G17" r:id="rId28"/>
-    <hyperlink ref="G19" r:id="rId29"/>
-    <hyperlink ref="G35" r:id="rId30"/>
-    <hyperlink ref="G33" r:id="rId31"/>
-    <hyperlink ref="K21" r:id="rId32"/>
-    <hyperlink ref="K19" r:id="rId33"/>
-    <hyperlink ref="K17" r:id="rId34"/>
-    <hyperlink ref="K23" r:id="rId35"/>
-    <hyperlink ref="K11" r:id="rId36"/>
-    <hyperlink ref="C27" r:id="rId37"/>
-    <hyperlink ref="G21" r:id="rId38"/>
-    <hyperlink ref="K25" r:id="rId39"/>
-    <hyperlink ref="C29" r:id="rId40" display="Checkout Form"/>
+    <hyperlink ref="C25" r:id="rId22"/>
+    <hyperlink ref="C23" r:id="rId23"/>
+    <hyperlink ref="C9" r:id="rId24"/>
+    <hyperlink ref="G15" r:id="rId25"/>
+    <hyperlink ref="G17" r:id="rId26"/>
+    <hyperlink ref="G19" r:id="rId27"/>
+    <hyperlink ref="G31" r:id="rId28"/>
+    <hyperlink ref="G29" r:id="rId29"/>
+    <hyperlink ref="K21" r:id="rId30"/>
+    <hyperlink ref="K19" r:id="rId31"/>
+    <hyperlink ref="K17" r:id="rId32"/>
+    <hyperlink ref="K23" r:id="rId33"/>
+    <hyperlink ref="K11" r:id="rId34"/>
+    <hyperlink ref="C27" r:id="rId35"/>
+    <hyperlink ref="G21" r:id="rId36"/>
+    <hyperlink ref="K25" r:id="rId37"/>
+    <hyperlink ref="C29" r:id="rId38" display="Checkout Form"/>
+    <hyperlink ref="C31" r:id="rId39"/>
+    <hyperlink ref="K27" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -156,13 +156,23 @@
   </si>
   <si>
     <t>Snake Game</t>
+  </si>
+  <si>
+    <t>BWSIP Convert Audio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,18 +260,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -607,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1058,9 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="3"/>
+      <c r="C33" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1101,9 +1114,10 @@
     <hyperlink ref="C29" r:id="rId38" display="Checkout Form"/>
     <hyperlink ref="C31" r:id="rId39"/>
     <hyperlink ref="K27" r:id="rId40"/>
+    <hyperlink ref="C33" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId41"/>
+  <drawing r:id="rId42"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -152,20 +152,27 @@
     <t>Kiosk Check-in Form</t>
   </si>
   <si>
-    <t>Equipment Checkout</t>
-  </si>
-  <si>
     <t>Snake Game</t>
   </si>
   <si>
     <t>BWSIP Convert Audio</t>
+  </si>
+  <si>
+    <t>Missed Shift Form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,18 +267,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -618,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,7 +995,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -1031,8 +1039,8 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="11" t="s">
-        <v>42</v>
+      <c r="C31" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1059,7 +1067,7 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1112,9 +1120,9 @@
     <hyperlink ref="G21" r:id="rId36"/>
     <hyperlink ref="K25" r:id="rId37"/>
     <hyperlink ref="C29" r:id="rId38" display="Checkout Form"/>
-    <hyperlink ref="C31" r:id="rId39"/>
-    <hyperlink ref="K27" r:id="rId40"/>
-    <hyperlink ref="C33" r:id="rId41"/>
+    <hyperlink ref="K27" r:id="rId39"/>
+    <hyperlink ref="C33" r:id="rId40"/>
+    <hyperlink ref="C31" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Banner</t>
   </si>
   <si>
-    <t>Internet Native Banner (INB)</t>
-  </si>
-  <si>
     <t>Printing</t>
   </si>
   <si>
@@ -159,13 +156,19 @@
   </si>
   <si>
     <t>Missed Shift Form</t>
+  </si>
+  <si>
+    <t>Wings Mortgage Login</t>
+  </si>
+  <si>
+    <t>IAM Account Lookup Tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +241,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -284,6 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,19 +647,19 @@
   <sheetData>
     <row r="3" spans="3:12" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="6"/>
     </row>
@@ -661,13 +671,13 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -685,24 +695,24 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -714,20 +724,20 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>25</v>
+      <c r="C9" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -745,7 +755,7 @@
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -757,7 +767,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -774,7 +784,7 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -786,7 +796,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -804,19 +814,19 @@
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -834,19 +844,19 @@
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -864,19 +874,19 @@
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -894,19 +904,19 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -923,19 +933,19 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -953,19 +963,19 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="10" t="s">
-        <v>40</v>
+      <c r="K25" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -978,24 +988,23 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="11" t="s">
-        <v>42</v>
+      <c r="K27" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -1013,18 +1022,20 @@
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
@@ -1040,13 +1051,13 @@
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1067,13 +1078,13 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -1084,48 +1095,49 @@
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1" location="/dashboard"/>
     <hyperlink ref="G13" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
-    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="C15" r:id="rId4"/>
     <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C15" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="C19" r:id="rId8"/>
-    <hyperlink ref="K5" r:id="rId9" display="Netgear ReadyShare Drive"/>
-    <hyperlink ref="K9" r:id="rId10" display="Netgear Router Login"/>
-    <hyperlink ref="K7" r:id="rId11" location="page=access"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C7" r:id="rId14"/>
-    <hyperlink ref="K15" r:id="rId15" display="Discover"/>
-    <hyperlink ref="G9" r:id="rId16"/>
-    <hyperlink ref="G5" r:id="rId17"/>
-    <hyperlink ref="G7" r:id="rId18"/>
-    <hyperlink ref="G23" r:id="rId19" location="gid=1"/>
-    <hyperlink ref="G25" r:id="rId20"/>
-    <hyperlink ref="G27" r:id="rId21"/>
-    <hyperlink ref="C25" r:id="rId22"/>
-    <hyperlink ref="C23" r:id="rId23"/>
-    <hyperlink ref="C9" r:id="rId24"/>
-    <hyperlink ref="G15" r:id="rId25"/>
-    <hyperlink ref="G17" r:id="rId26"/>
-    <hyperlink ref="G19" r:id="rId27"/>
-    <hyperlink ref="G31" r:id="rId28"/>
-    <hyperlink ref="G29" r:id="rId29"/>
-    <hyperlink ref="K21" r:id="rId30"/>
-    <hyperlink ref="K19" r:id="rId31"/>
-    <hyperlink ref="K17" r:id="rId32"/>
-    <hyperlink ref="K23" r:id="rId33"/>
-    <hyperlink ref="K11" r:id="rId34"/>
-    <hyperlink ref="C27" r:id="rId35"/>
-    <hyperlink ref="G21" r:id="rId36"/>
-    <hyperlink ref="K25" r:id="rId37"/>
-    <hyperlink ref="C29" r:id="rId38" display="Checkout Form"/>
-    <hyperlink ref="K27" r:id="rId39"/>
-    <hyperlink ref="C33" r:id="rId40"/>
-    <hyperlink ref="C31" r:id="rId41"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C19" r:id="rId7"/>
+    <hyperlink ref="K5" r:id="rId8" display="Netgear ReadyShare Drive"/>
+    <hyperlink ref="K9" r:id="rId9" display="Netgear Router Login"/>
+    <hyperlink ref="K7" r:id="rId10" location="page=access"/>
+    <hyperlink ref="K13" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C7" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14" display="Discover"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="G5" r:id="rId16"/>
+    <hyperlink ref="G7" r:id="rId17"/>
+    <hyperlink ref="G23" r:id="rId18" location="gid=1"/>
+    <hyperlink ref="G25" r:id="rId19"/>
+    <hyperlink ref="G27" r:id="rId20"/>
+    <hyperlink ref="C25" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C11" r:id="rId23"/>
+    <hyperlink ref="G15" r:id="rId24"/>
+    <hyperlink ref="G17" r:id="rId25"/>
+    <hyperlink ref="G19" r:id="rId26"/>
+    <hyperlink ref="G31" r:id="rId27"/>
+    <hyperlink ref="G29" r:id="rId28"/>
+    <hyperlink ref="K21" r:id="rId29"/>
+    <hyperlink ref="K19" r:id="rId30"/>
+    <hyperlink ref="K17" r:id="rId31"/>
+    <hyperlink ref="K23" r:id="rId32"/>
+    <hyperlink ref="K11" r:id="rId33"/>
+    <hyperlink ref="C27" r:id="rId34"/>
+    <hyperlink ref="G21" r:id="rId35"/>
+    <hyperlink ref="K27" r:id="rId36"/>
+    <hyperlink ref="C29" r:id="rId37" display="Checkout Form"/>
+    <hyperlink ref="K29" r:id="rId38"/>
+    <hyperlink ref="C33" r:id="rId39"/>
+    <hyperlink ref="C31" r:id="rId40"/>
+    <hyperlink ref="K25" r:id="rId41"/>
+    <hyperlink ref="C9" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId42"/>
+  <drawing r:id="rId43"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -161,49 +161,17 @@
     <t>Wings Mortgage Login</t>
   </si>
   <si>
-    <t>IAM Account Lookup Tool</t>
+    <t>AirTame Cloud</t>
+  </si>
+  <si>
+    <t>TIAA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,24 +244,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -634,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L33"/>
+  <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,450 +607,487 @@
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="14" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="7" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="8"/>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="7" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="8"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="10" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="7" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="8"/>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="14" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="10" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="11" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="12" t="s">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="1"/>
     </row>
   </sheetData>
@@ -1117,7 +1116,7 @@
     <hyperlink ref="C23" r:id="rId22"/>
     <hyperlink ref="C11" r:id="rId23"/>
     <hyperlink ref="G15" r:id="rId24"/>
-    <hyperlink ref="G17" r:id="rId25"/>
+    <hyperlink ref="C9" r:id="rId25"/>
     <hyperlink ref="G19" r:id="rId26"/>
     <hyperlink ref="G31" r:id="rId27"/>
     <hyperlink ref="G29" r:id="rId28"/>
@@ -1130,14 +1129,15 @@
     <hyperlink ref="G21" r:id="rId35"/>
     <hyperlink ref="K27" r:id="rId36"/>
     <hyperlink ref="C29" r:id="rId37" display="Checkout Form"/>
-    <hyperlink ref="K29" r:id="rId38"/>
+    <hyperlink ref="K31" r:id="rId38"/>
     <hyperlink ref="C33" r:id="rId39"/>
     <hyperlink ref="C31" r:id="rId40"/>
     <hyperlink ref="K25" r:id="rId41"/>
-    <hyperlink ref="C9" r:id="rId42"/>
+    <hyperlink ref="G17" r:id="rId42"/>
+    <hyperlink ref="K29" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId43"/>
+  <drawing r:id="rId44"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Parralles Licenses</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Missed Shift Form</t>
-  </si>
-  <si>
-    <t>Wings Mortgage Login</t>
   </si>
   <si>
     <t>AirTame Cloud</t>
@@ -172,6 +169,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,12 +213,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,17 +242,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -598,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,7 +824,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -959,8 +957,8 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
+      <c r="K25" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -1023,8 +1021,8 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="8" t="s">
-        <v>46</v>
+      <c r="K29" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -1132,9 +1130,9 @@
     <hyperlink ref="K31" r:id="rId38"/>
     <hyperlink ref="C33" r:id="rId39"/>
     <hyperlink ref="C31" r:id="rId40"/>
-    <hyperlink ref="K25" r:id="rId41"/>
-    <hyperlink ref="G17" r:id="rId42"/>
-    <hyperlink ref="K29" r:id="rId43"/>
+    <hyperlink ref="G17" r:id="rId41"/>
+    <hyperlink ref="K29" r:id="rId42"/>
+    <hyperlink ref="K25" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
